--- a/TIMES-NZ/ReportDefs-TIMES-NZ.xlsx
+++ b/TIMES-NZ/ReportDefs-TIMES-NZ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Veda\Veda_models\TIMES-NZ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5979C2F4-D0EC-4D5A-B2E2-DA8BE142353C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{521BBE4D-C722-4F58-B1C8-06C084E0623A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ScenMap" sheetId="56" r:id="rId1"/>
@@ -106,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="258">
   <si>
     <t>Unit</t>
   </si>
@@ -877,6 +877,9 @@
   </si>
   <si>
     <t>&lt;cset&gt;_Src_&lt;pset&gt;</t>
+  </si>
+  <si>
+    <t>ELE,-STG</t>
   </si>
 </sst>
 </file>
@@ -1690,7 +1693,7 @@
   <sheetPr codeName="Sheet19"/>
   <dimension ref="A1:R15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
@@ -2110,7 +2113,7 @@
       </c>
       <c r="B4" s="2" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,'PSet_MAP coarse'!$A$3:$A$17)</f>
-        <v>s_Agriculture,s_BioProc,s_Commercial,s_Hydrogen,s_PriExp,s_PriImp,s_PriProd,s_Refinery,s_Residential,s_Transport</v>
+        <v>s_Agriculture,s_BioProc,s_Commercial,s_Hydrogen,s_PriExp,s_PriImp,s_PriProd,s_Refinery,s_Residential,s_Transport,ELE,-STG</v>
       </c>
       <c r="G4" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,CSET_MAP!$A$3:$A$42)</f>
@@ -2129,7 +2132,7 @@
       </c>
       <c r="B5" s="2" t="str">
         <f>B4</f>
-        <v>s_Agriculture,s_BioProc,s_Commercial,s_Hydrogen,s_PriExp,s_PriImp,s_PriProd,s_Refinery,s_Residential,s_Transport</v>
+        <v>s_Agriculture,s_BioProc,s_Commercial,s_Hydrogen,s_PriExp,s_PriImp,s_PriProd,s_Refinery,s_Residential,s_Transport,ELE,-STG</v>
       </c>
       <c r="G5" t="str">
         <f>G4</f>
@@ -2151,10 +2154,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2259,6 +2262,14 @@
       </c>
       <c r="B12" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>257</v>
+      </c>
+      <c r="B13" t="s">
+        <v>186</v>
       </c>
     </row>
   </sheetData>

--- a/TIMES-NZ/ReportDefs-TIMES-NZ.xlsx
+++ b/TIMES-NZ/ReportDefs-TIMES-NZ.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Veda\Veda_models\TIMES-NZ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Veda\Veda_models\TIMES-NZ-Model-Files\TIMES-NZ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{521BBE4D-C722-4F58-B1C8-06C084E0623A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A80B62-C8F1-4FDD-B41F-CDE793400305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -106,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="257">
   <si>
     <t>Unit</t>
   </si>
@@ -877,9 +877,6 @@
   </si>
   <si>
     <t>&lt;cset&gt;_Src_&lt;pset&gt;</t>
-  </si>
-  <si>
-    <t>ELE,-STG</t>
   </si>
 </sst>
 </file>
@@ -2113,7 +2110,7 @@
       </c>
       <c r="B4" s="2" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,'PSet_MAP coarse'!$A$3:$A$17)</f>
-        <v>s_Agriculture,s_BioProc,s_Commercial,s_Hydrogen,s_PriExp,s_PriImp,s_PriProd,s_Refinery,s_Residential,s_Transport,ELE,-STG</v>
+        <v>s_Agriculture,s_BioProc,s_Commercial,s_Hydrogen,s_PriExp,s_PriImp,s_PriProd,s_Refinery,s_Residential,s_Transport,ELE</v>
       </c>
       <c r="G4" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,CSET_MAP!$A$3:$A$42)</f>
@@ -2132,7 +2129,7 @@
       </c>
       <c r="B5" s="2" t="str">
         <f>B4</f>
-        <v>s_Agriculture,s_BioProc,s_Commercial,s_Hydrogen,s_PriExp,s_PriImp,s_PriProd,s_Refinery,s_Residential,s_Transport,ELE,-STG</v>
+        <v>s_Agriculture,s_BioProc,s_Commercial,s_Hydrogen,s_PriExp,s_PriImp,s_PriProd,s_Refinery,s_Residential,s_Transport,ELE</v>
       </c>
       <c r="G5" t="str">
         <f>G4</f>
@@ -2157,7 +2154,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2266,7 +2263,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>257</v>
+        <v>113</v>
       </c>
       <c r="B13" t="s">
         <v>186</v>

--- a/TIMES-NZ/ReportDefs-TIMES-NZ.xlsx
+++ b/TIMES-NZ/ReportDefs-TIMES-NZ.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Veda\Veda_models\TIMES-NZ-Model-Files\TIMES-NZ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Veda\Veda_models\TIMES-NZ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A80B62-C8F1-4FDD-B41F-CDE793400305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28D2FE7D-6089-4C25-9477-499052FC6F11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ScenMap" sheetId="56" r:id="rId1"/>
@@ -106,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="258">
   <si>
     <t>Unit</t>
   </si>
@@ -315,9 +315,6 @@
     <t>Price_NRG</t>
   </si>
   <si>
-    <t>ct</t>
-  </si>
-  <si>
     <t>User_conFXM</t>
   </si>
   <si>
@@ -877,6 +874,12 @@
   </si>
   <si>
     <t>&lt;cset&gt;_Src_&lt;pset&gt;</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>c,t</t>
   </si>
 </sst>
 </file>
@@ -1394,7 +1397,7 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="B1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I1" t="s">
         <v>50</v>
@@ -1414,7 +1417,7 @@
     </row>
     <row r="2" spans="1:15">
       <c r="I2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K2" t="s">
         <v>52</v>
@@ -1431,10 +1434,10 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
+        <v>94</v>
+      </c>
+      <c r="H4" t="s">
         <v>95</v>
-      </c>
-      <c r="H4" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -1499,7 +1502,7 @@
         <v>Fixed</v>
       </c>
       <c r="I6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O6">
         <v>1</v>
@@ -1527,7 +1530,7 @@
         <v>V1G</v>
       </c>
       <c r="I7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O7">
         <v>2</v>
@@ -1555,7 +1558,7 @@
         <v>V2G</v>
       </c>
       <c r="I8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O8">
         <v>3</v>
@@ -1658,10 +1661,10 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" t="s">
         <v>86</v>
-      </c>
-      <c r="B3" t="s">
-        <v>87</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -1674,10 +1677,10 @@
         <v>24</v>
       </c>
       <c r="L3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M3" t="s">
         <v>89</v>
-      </c>
-      <c r="M3" t="s">
-        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1690,9 +1693,9 @@
   <sheetPr codeName="Sheet19"/>
   <dimension ref="A1:R15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:B1"/>
+      <selection pane="bottomLeft" activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1710,7 +1713,7 @@
     <col min="13" max="13" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="28" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="11.5703125" bestFit="1" customWidth="1"/>
@@ -1776,10 +1779,10 @@
         <v>22</v>
       </c>
       <c r="Q2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="R2" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -1787,16 +1790,16 @@
         <v>18</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N3" t="s">
+        <v>242</v>
+      </c>
+      <c r="P3" t="s">
         <v>243</v>
-      </c>
-      <c r="P3" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1804,13 +1807,13 @@
         <v>49</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1818,19 +1821,25 @@
         <v>14</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
+      </c>
+      <c r="H5" t="s">
+        <v>40</v>
       </c>
       <c r="I5" t="s">
+        <v>240</v>
+      </c>
+      <c r="K5" t="s">
+        <v>253</v>
+      </c>
+      <c r="N5" t="s">
         <v>241</v>
       </c>
-      <c r="K5" t="s">
-        <v>66</v>
-      </c>
-      <c r="N5" t="s">
-        <v>242</v>
-      </c>
       <c r="P5" t="s">
-        <v>186</v>
+        <v>185</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -1838,13 +1847,16 @@
         <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K6" t="s">
         <v>15</v>
       </c>
       <c r="N6" t="s">
-        <v>246</v>
+        <v>245</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -1852,7 +1864,7 @@
         <v>14</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I7" t="s">
         <v>57</v>
@@ -1861,24 +1873,24 @@
         <v>15</v>
       </c>
       <c r="N7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="K8" t="s">
         <v>83</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="K8" t="s">
-        <v>84</v>
       </c>
       <c r="N8" t="s">
         <v>65</v>
       </c>
       <c r="Q8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -1920,7 +1932,7 @@
         <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H11" t="s">
         <v>40</v>
@@ -1929,10 +1941,10 @@
         <v>66</v>
       </c>
       <c r="N11" t="s">
+        <v>248</v>
+      </c>
+      <c r="P11" t="s">
         <v>249</v>
-      </c>
-      <c r="P11" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -1940,33 +1952,33 @@
         <v>43</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H12" t="s">
         <v>40</v>
       </c>
       <c r="K12" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="N12" t="s">
         <v>68</v>
       </c>
       <c r="Q12" t="s">
-        <v>69</v>
+        <v>257</v>
       </c>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" t="s">
+        <v>69</v>
+      </c>
+      <c r="K13" t="s">
+        <v>239</v>
+      </c>
+      <c r="N13" t="s">
         <v>70</v>
       </c>
-      <c r="K13" t="s">
-        <v>240</v>
-      </c>
-      <c r="N13" t="s">
+      <c r="Q13" t="s">
         <v>71</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -1974,7 +1986,7 @@
         <v>39</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H14" t="s">
         <v>40</v>
@@ -1983,24 +1995,24 @@
         <v>66</v>
       </c>
       <c r="N14" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>49</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K15" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="N15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q15" t="s">
         <v>67</v>
@@ -2045,7 +2057,7 @@
   <sheetData>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -2095,13 +2107,13 @@
         <v>22</v>
       </c>
       <c r="P3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Q3" t="s">
+        <v>251</v>
+      </c>
+      <c r="R3" t="s">
         <v>252</v>
-      </c>
-      <c r="R3" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -2117,10 +2129,10 @@
         <v>nrg_COA,nrg_DSL,nrg_ELC,nrg_FOL,nrg_GEO,nrg_H2R,nrg_LPG,nrg_NGA,nrg_PET,nrg_PLT,nrg_WOD,nrg_WST,nrg_MNR,nrg_BIG,nrg_BIL,nrg_COL,nrg_seq,nrg_CO2,nrg_DID,nrg_DIJ,nrg_LCD,nrg_CDD,nrg_-HV,nrg_HYD,nrg_-MV,nrg_OIL,nrg_SOL,nrg_TID,nrg_URN,nrg_WIN,nrg_H2C,nrg_H2D,nrg_JET,nrg_LNG,nrg_ILD,nrg_ILI,nrg_OTH</v>
       </c>
       <c r="J4" t="s">
+        <v>253</v>
+      </c>
+      <c r="M4" t="s">
         <v>254</v>
-      </c>
-      <c r="M4" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -2136,10 +2148,10 @@
         <v>nrg_COA,nrg_DSL,nrg_ELC,nrg_FOL,nrg_GEO,nrg_H2R,nrg_LPG,nrg_NGA,nrg_PET,nrg_PLT,nrg_WOD,nrg_WST,nrg_MNR,nrg_BIG,nrg_BIL,nrg_COL,nrg_seq,nrg_CO2,nrg_DID,nrg_DIJ,nrg_LCD,nrg_CDD,nrg_-HV,nrg_HYD,nrg_-MV,nrg_OIL,nrg_SOL,nrg_TID,nrg_URN,nrg_WIN,nrg_H2C,nrg_H2D,nrg_JET,nrg_LNG,nrg_ILD,nrg_ILI,nrg_OTH</v>
       </c>
       <c r="J5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="M5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -2153,7 +2165,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
@@ -2183,7 +2195,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B3" t="s">
         <v>21</v>
@@ -2191,15 +2203,15 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
@@ -2207,47 +2219,47 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
+        <v>236</v>
+      </c>
+      <c r="B7" t="s">
         <v>237</v>
-      </c>
-      <c r="B7" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
@@ -2255,7 +2267,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
@@ -2263,10 +2275,10 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -2292,12 +2304,12 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -2308,7 +2320,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -2316,183 +2328,183 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B4" t="s">
         <v>147</v>
-      </c>
-      <c r="B4" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B5" t="s">
         <v>149</v>
-      </c>
-      <c r="B5" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
+        <v>150</v>
+      </c>
+      <c r="B6" t="s">
         <v>151</v>
-      </c>
-      <c r="B6" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
+        <v>152</v>
+      </c>
+      <c r="B7" t="s">
         <v>153</v>
-      </c>
-      <c r="B7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
+        <v>154</v>
+      </c>
+      <c r="B8" t="s">
         <v>155</v>
-      </c>
-      <c r="B8" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
+        <v>156</v>
+      </c>
+      <c r="B9" t="s">
         <v>157</v>
-      </c>
-      <c r="B9" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
+        <v>158</v>
+      </c>
+      <c r="B10" t="s">
         <v>159</v>
-      </c>
-      <c r="B10" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
+        <v>160</v>
+      </c>
+      <c r="B11" t="s">
         <v>161</v>
-      </c>
-      <c r="B11" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
+        <v>162</v>
+      </c>
+      <c r="B12" t="s">
         <v>163</v>
-      </c>
-      <c r="B12" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
+        <v>164</v>
+      </c>
+      <c r="B13" t="s">
         <v>165</v>
-      </c>
-      <c r="B13" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
+        <v>166</v>
+      </c>
+      <c r="B14" t="s">
         <v>167</v>
-      </c>
-      <c r="B14" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
+        <v>168</v>
+      </c>
+      <c r="B15" t="s">
         <v>169</v>
-      </c>
-      <c r="B15" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
+        <v>170</v>
+      </c>
+      <c r="B16" t="s">
         <v>171</v>
-      </c>
-      <c r="B16" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
+        <v>172</v>
+      </c>
+      <c r="B17" t="s">
         <v>173</v>
-      </c>
-      <c r="B17" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
+        <v>174</v>
+      </c>
+      <c r="B18" t="s">
         <v>175</v>
-      </c>
-      <c r="B18" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
+        <v>176</v>
+      </c>
+      <c r="B19" t="s">
         <v>177</v>
-      </c>
-      <c r="B19" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
+        <v>178</v>
+      </c>
+      <c r="B20" t="s">
         <v>179</v>
-      </c>
-      <c r="B20" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
+        <v>180</v>
+      </c>
+      <c r="B21" t="s">
         <v>181</v>
-      </c>
-      <c r="B21" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
+        <v>182</v>
+      </c>
+      <c r="B22" t="s">
         <v>183</v>
-      </c>
-      <c r="B22" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
+        <v>184</v>
+      </c>
+      <c r="B23" t="s">
         <v>185</v>
-      </c>
-      <c r="B23" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B24" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B25" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B26" t="s">
         <v>5</v>
@@ -2500,15 +2512,15 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B27" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B28" t="s">
         <v>6</v>
@@ -2516,7 +2528,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B29" t="s">
         <v>7</v>
@@ -2524,23 +2536,23 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
+        <v>192</v>
+      </c>
+      <c r="B30" t="s">
         <v>193</v>
-      </c>
-      <c r="B30" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
+        <v>194</v>
+      </c>
+      <c r="B31" t="s">
         <v>195</v>
-      </c>
-      <c r="B31" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B32" t="s">
         <v>8</v>
@@ -2548,58 +2560,58 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
+        <v>197</v>
+      </c>
+      <c r="B33" t="s">
         <v>198</v>
-      </c>
-      <c r="B33" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B34" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
+        <v>200</v>
+      </c>
+      <c r="B35" t="s">
         <v>201</v>
-      </c>
-      <c r="B35" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
+        <v>202</v>
+      </c>
+      <c r="B36" t="s">
         <v>203</v>
-      </c>
-      <c r="B36" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
+        <v>204</v>
+      </c>
+      <c r="B37" t="s">
         <v>205</v>
-      </c>
-      <c r="B37" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
+        <v>206</v>
+      </c>
+      <c r="B38" t="s">
         <v>207</v>
-      </c>
-      <c r="B38" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
+        <v>208</v>
+      </c>
+      <c r="B39" t="s">
         <v>209</v>
-      </c>
-      <c r="B39" t="s">
-        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -2665,18 +2677,18 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" t="s">
         <v>75</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>76</v>
-      </c>
-      <c r="C2" t="s">
-        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -2705,418 +2717,418 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" t="s">
         <v>75</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>76</v>
       </c>
-      <c r="C2" t="s">
-        <v>77</v>
-      </c>
       <c r="D2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2" t="s">
         <v>98</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>99</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>100</v>
-      </c>
-      <c r="G2" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C3" t="s">
         <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C13" t="s">
         <v>65</v>
       </c>
       <c r="D13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C24" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D24" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D25" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C26" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D26" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C27" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D27" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C28" t="s">
         <v>3</v>
       </c>
       <c r="D28" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C29" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D29" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
       </c>
       <c r="D30" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C31" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D31" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C32" t="s">
         <v>7</v>
       </c>
       <c r="D32" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C33" t="s">
         <v>8</v>
       </c>
       <c r="D33" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C34" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D34" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C35" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D35" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
+        <v>231</v>
+      </c>
+      <c r="C36" t="s">
         <v>232</v>
       </c>
-      <c r="C36" t="s">
-        <v>233</v>
-      </c>
       <c r="D36" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C37" t="s">
+        <v>233</v>
+      </c>
+      <c r="D37" t="s">
         <v>234</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>235</v>
-      </c>
-      <c r="E37" t="s">
-        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -3146,441 +3158,441 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" t="s">
         <v>75</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>76</v>
       </c>
-      <c r="C2" t="s">
-        <v>77</v>
-      </c>
       <c r="D2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E2" t="s">
         <v>105</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G2" t="s">
         <v>106</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>108</v>
-      </c>
-      <c r="G2" t="s">
-        <v>107</v>
-      </c>
-      <c r="H2" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D16" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D17" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C18" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D18" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D19" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D20" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C21" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D21" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C22" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D22" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D23" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C24" t="s">
+        <v>185</v>
+      </c>
+      <c r="D24" t="s">
         <v>186</v>
-      </c>
-      <c r="D24" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C25" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D25" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
       </c>
       <c r="D26" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C27" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D27" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C28" t="s">
         <v>6</v>
       </c>
       <c r="D28" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C29" t="s">
         <v>7</v>
       </c>
       <c r="D29" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C30" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D30" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C31" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D31" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C32" t="s">
         <v>8</v>
       </c>
       <c r="D32" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C33" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D33" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C34" t="s">
+        <v>198</v>
+      </c>
+      <c r="D34" t="s">
         <v>199</v>
-      </c>
-      <c r="D34" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C35" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D35" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C36" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D36" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C37" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D37" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C38" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D38" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C39" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D39" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>

--- a/TIMES-NZ/ReportDefs-TIMES-NZ.xlsx
+++ b/TIMES-NZ/ReportDefs-TIMES-NZ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Veda\Veda_models\TIMES-NZ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28D2FE7D-6089-4C25-9477-499052FC6F11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6248266D-DD6E-415E-AFEC-8BCFCA2F82CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ScenMap" sheetId="56" r:id="rId1"/>
@@ -106,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="337">
   <si>
     <t>Unit</t>
   </si>
@@ -807,15 +807,6 @@
     <t>Batt Stg</t>
   </si>
   <si>
-    <t>Pumped Stg</t>
-  </si>
-  <si>
-    <t>STG</t>
-  </si>
-  <si>
-    <t>EHYD*</t>
-  </si>
-  <si>
     <t>s_PriExp</t>
   </si>
   <si>
@@ -880,6 +871,252 @@
   </si>
   <si>
     <t>c,t</t>
+  </si>
+  <si>
+    <t>Storage</t>
+  </si>
+  <si>
+    <t>s_Industry</t>
+  </si>
+  <si>
+    <t>Industry</t>
+  </si>
+  <si>
+    <t>s_Power</t>
+  </si>
+  <si>
+    <t>Elec Production</t>
+  </si>
+  <si>
+    <t>E_StgBatt</t>
+  </si>
+  <si>
+    <t>E_StgPump</t>
+  </si>
+  <si>
+    <t>Phydro Stg</t>
+  </si>
+  <si>
+    <t>eu_Aviation</t>
+  </si>
+  <si>
+    <t>Aviation</t>
+  </si>
+  <si>
+    <t>eu_Bus</t>
+  </si>
+  <si>
+    <t>Bus</t>
+  </si>
+  <si>
+    <t>eu_Cars</t>
+  </si>
+  <si>
+    <t>Cars</t>
+  </si>
+  <si>
+    <t>eu_Motorcycle</t>
+  </si>
+  <si>
+    <t>Motorcycle</t>
+  </si>
+  <si>
+    <t>eu_Rail</t>
+  </si>
+  <si>
+    <t>Rail</t>
+  </si>
+  <si>
+    <t>eu_Ships</t>
+  </si>
+  <si>
+    <t>Ships</t>
+  </si>
+  <si>
+    <t>eu_Trucks</t>
+  </si>
+  <si>
+    <t>Trucks</t>
+  </si>
+  <si>
+    <t>s_Storage</t>
+  </si>
+  <si>
+    <t>ss_Attached</t>
+  </si>
+  <si>
+    <t>Attached</t>
+  </si>
+  <si>
+    <t>ss_Chemicals</t>
+  </si>
+  <si>
+    <t>Chemicals</t>
+  </si>
+  <si>
+    <t>ss_Construction</t>
+  </si>
+  <si>
+    <t>Construction</t>
+  </si>
+  <si>
+    <t>ss_Dairy</t>
+  </si>
+  <si>
+    <t>Dairy</t>
+  </si>
+  <si>
+    <t>ss_DairyCattleFarming</t>
+  </si>
+  <si>
+    <t>Dairy Cattle Farming</t>
+  </si>
+  <si>
+    <t>ss_Detached</t>
+  </si>
+  <si>
+    <t>Detached</t>
+  </si>
+  <si>
+    <t>ss_Education</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>ss_Fishing</t>
+  </si>
+  <si>
+    <t>Fishing</t>
+  </si>
+  <si>
+    <t>ss_Food</t>
+  </si>
+  <si>
+    <t>Food</t>
+  </si>
+  <si>
+    <t>ss_Forestry</t>
+  </si>
+  <si>
+    <t>Forestry</t>
+  </si>
+  <si>
+    <t>ss_Healthcare</t>
+  </si>
+  <si>
+    <t>Healthcare</t>
+  </si>
+  <si>
+    <t>ss_Horticulture</t>
+  </si>
+  <si>
+    <t>Horticulture</t>
+  </si>
+  <si>
+    <t>ss_Indoorcropping</t>
+  </si>
+  <si>
+    <t>Indoor cropping</t>
+  </si>
+  <si>
+    <t>ss_Livestock</t>
+  </si>
+  <si>
+    <t>Livestock</t>
+  </si>
+  <si>
+    <t>ss_Meat</t>
+  </si>
+  <si>
+    <t>Meat</t>
+  </si>
+  <si>
+    <t>ss_Metals</t>
+  </si>
+  <si>
+    <t>Metals</t>
+  </si>
+  <si>
+    <t>ss_Methanol</t>
+  </si>
+  <si>
+    <t>Methanol</t>
+  </si>
+  <si>
+    <t>ss_Minerals</t>
+  </si>
+  <si>
+    <t>Minerals</t>
+  </si>
+  <si>
+    <t>ss_Mining</t>
+  </si>
+  <si>
+    <t>Mining</t>
+  </si>
+  <si>
+    <t>ss_Office</t>
+  </si>
+  <si>
+    <t>Office</t>
+  </si>
+  <si>
+    <t>ss_Paper</t>
+  </si>
+  <si>
+    <t>Paper</t>
+  </si>
+  <si>
+    <t>ss_Refining</t>
+  </si>
+  <si>
+    <t>Refining</t>
+  </si>
+  <si>
+    <t>ss_Steel</t>
+  </si>
+  <si>
+    <t>Steel</t>
+  </si>
+  <si>
+    <t>ss_Urea</t>
+  </si>
+  <si>
+    <t>Urea</t>
+  </si>
+  <si>
+    <t>ss_WoodProdMfg</t>
+  </si>
+  <si>
+    <t>Wood Prod Mfg</t>
+  </si>
+  <si>
+    <t>ss_WSR</t>
+  </si>
+  <si>
+    <t>WSR</t>
+  </si>
+  <si>
+    <t>Sub-sector</t>
+  </si>
+  <si>
+    <t>ss_OtherInd</t>
+  </si>
+  <si>
+    <t>Other Ind</t>
+  </si>
+  <si>
+    <t>ss_OtherAgri</t>
+  </si>
+  <si>
+    <t>Other Agri</t>
+  </si>
+  <si>
+    <t>ss_OtherCom</t>
+  </si>
+  <si>
+    <t>Other Com</t>
   </si>
 </sst>
 </file>
@@ -1693,7 +1930,7 @@
   <sheetPr codeName="Sheet19"/>
   <dimension ref="A1:R15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="Q13" sqref="Q13"/>
     </sheetView>
@@ -1796,10 +2033,10 @@
         <v>111</v>
       </c>
       <c r="N3" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="P3" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1827,19 +2064,19 @@
         <v>40</v>
       </c>
       <c r="I5" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="K5" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="N5" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="P5" t="s">
         <v>185</v>
       </c>
       <c r="Q5" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -1847,16 +2084,16 @@
         <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="K6" t="s">
         <v>15</v>
       </c>
       <c r="N6" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="Q6" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -1932,7 +2169,7 @@
         <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H11" t="s">
         <v>40</v>
@@ -1941,10 +2178,10 @@
         <v>66</v>
       </c>
       <c r="N11" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="P11" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -1958,13 +2195,13 @@
         <v>40</v>
       </c>
       <c r="K12" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="N12" t="s">
         <v>68</v>
       </c>
       <c r="Q12" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -1972,7 +2209,7 @@
         <v>69</v>
       </c>
       <c r="K13" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="N13" t="s">
         <v>70</v>
@@ -1995,7 +2232,7 @@
         <v>66</v>
       </c>
       <c r="N14" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -2009,7 +2246,7 @@
         <v>109</v>
       </c>
       <c r="K15" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="N15" t="s">
         <v>84</v>
@@ -2057,7 +2294,7 @@
   <sheetData>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -2110,10 +2347,10 @@
         <v>80</v>
       </c>
       <c r="Q3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="R3" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -2122,17 +2359,17 @@
       </c>
       <c r="B4" s="2" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,'PSet_MAP coarse'!$A$3:$A$17)</f>
-        <v>s_Agriculture,s_BioProc,s_Commercial,s_Hydrogen,s_PriExp,s_PriImp,s_PriProd,s_Refinery,s_Residential,s_Transport,ELE</v>
+        <v>s_Agriculture,s_BioProc,s_Commercial,s_Hydrogen,s_PriExp,s_PriImp,s_PriProd,s_Refinery,s_Residential,s_Transport,s_Power</v>
       </c>
       <c r="G4" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,CSET_MAP!$A$3:$A$42)</f>
         <v>nrg_COA,nrg_DSL,nrg_ELC,nrg_FOL,nrg_GEO,nrg_H2R,nrg_LPG,nrg_NGA,nrg_PET,nrg_PLT,nrg_WOD,nrg_WST,nrg_MNR,nrg_BIG,nrg_BIL,nrg_COL,nrg_seq,nrg_CO2,nrg_DID,nrg_DIJ,nrg_LCD,nrg_CDD,nrg_-HV,nrg_HYD,nrg_-MV,nrg_OIL,nrg_SOL,nrg_TID,nrg_URN,nrg_WIN,nrg_H2C,nrg_H2D,nrg_JET,nrg_LNG,nrg_ILD,nrg_ILI,nrg_OTH</v>
       </c>
       <c r="J4" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="M4" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -2141,17 +2378,17 @@
       </c>
       <c r="B5" s="2" t="str">
         <f>B4</f>
-        <v>s_Agriculture,s_BioProc,s_Commercial,s_Hydrogen,s_PriExp,s_PriImp,s_PriProd,s_Refinery,s_Residential,s_Transport,ELE</v>
+        <v>s_Agriculture,s_BioProc,s_Commercial,s_Hydrogen,s_PriExp,s_PriImp,s_PriProd,s_Refinery,s_Residential,s_Transport,s_Power</v>
       </c>
       <c r="G5" t="str">
         <f>G4</f>
         <v>nrg_COA,nrg_DSL,nrg_ELC,nrg_FOL,nrg_GEO,nrg_H2R,nrg_LPG,nrg_NGA,nrg_PET,nrg_PLT,nrg_WOD,nrg_WST,nrg_MNR,nrg_BIG,nrg_BIL,nrg_COL,nrg_seq,nrg_CO2,nrg_DID,nrg_DIJ,nrg_LCD,nrg_CDD,nrg_-HV,nrg_HYD,nrg_-MV,nrg_OIL,nrg_SOL,nrg_TID,nrg_URN,nrg_WIN,nrg_H2C,nrg_H2D,nrg_JET,nrg_LNG,nrg_ILD,nrg_ILI,nrg_OTH</v>
       </c>
       <c r="J5" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="M5" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -2166,7 +2403,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2227,10 +2464,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2275,10 +2512,10 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>112</v>
+        <v>258</v>
       </c>
       <c r="B13" t="s">
-        <v>185</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -2698,10 +2935,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10ADB714-E6AA-4E3E-B77B-62B65BA0E218}">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2745,123 +2982,123 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>77</v>
+        <v>231</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>221</v>
       </c>
       <c r="D3" t="s">
-        <v>114</v>
+        <v>229</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>77</v>
+        <v>231</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>171</v>
       </c>
       <c r="D4" t="s">
-        <v>115</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>77</v>
+        <v>231</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>116</v>
+        <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>77</v>
+        <v>231</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>153</v>
       </c>
       <c r="D6" t="s">
-        <v>117</v>
+        <v>224</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>77</v>
+        <v>231</v>
       </c>
       <c r="C7" t="s">
-        <v>216</v>
+        <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>77</v>
+        <v>231</v>
       </c>
       <c r="C8" t="s">
-        <v>217</v>
+        <v>159</v>
       </c>
       <c r="D8" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>77</v>
+        <v>231</v>
       </c>
       <c r="C9" t="s">
-        <v>237</v>
+        <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>77</v>
+        <v>231</v>
       </c>
       <c r="C10" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="D10" t="s">
-        <v>213</v>
+        <v>260</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>77</v>
+        <v>231</v>
       </c>
       <c r="C11" t="s">
-        <v>219</v>
+        <v>262</v>
       </c>
       <c r="D11" t="s">
-        <v>214</v>
+        <v>261</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>77</v>
+        <v>231</v>
       </c>
       <c r="C12" t="s">
-        <v>220</v>
+        <v>167</v>
       </c>
       <c r="D12" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>77</v>
+        <v>231</v>
       </c>
       <c r="C13" t="s">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>112</v>
+        <v>228</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -2869,10 +3106,10 @@
         <v>144</v>
       </c>
       <c r="C14" t="s">
-        <v>119</v>
+        <v>264</v>
       </c>
       <c r="D14" t="s">
-        <v>118</v>
+        <v>263</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -2880,10 +3117,10 @@
         <v>144</v>
       </c>
       <c r="C15" t="s">
-        <v>121</v>
+        <v>266</v>
       </c>
       <c r="D15" t="s">
-        <v>120</v>
+        <v>265</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2891,10 +3128,10 @@
         <v>144</v>
       </c>
       <c r="C16" t="s">
-        <v>123</v>
+        <v>268</v>
       </c>
       <c r="D16" t="s">
-        <v>122</v>
+        <v>267</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2902,10 +3139,10 @@
         <v>144</v>
       </c>
       <c r="C17" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="D17" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2913,10 +3150,10 @@
         <v>144</v>
       </c>
       <c r="C18" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="D18" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2924,10 +3161,10 @@
         <v>144</v>
       </c>
       <c r="C19" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D19" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2935,10 +3172,10 @@
         <v>144</v>
       </c>
       <c r="C20" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="D20" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2946,10 +3183,10 @@
         <v>144</v>
       </c>
       <c r="C21" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="D21" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2957,10 +3194,10 @@
         <v>144</v>
       </c>
       <c r="C22" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D22" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2968,10 +3205,10 @@
         <v>144</v>
       </c>
       <c r="C23" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="D23" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2979,10 +3216,10 @@
         <v>144</v>
       </c>
       <c r="C24" t="s">
-        <v>139</v>
+        <v>270</v>
       </c>
       <c r="D24" t="s">
-        <v>138</v>
+        <v>269</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2990,10 +3227,10 @@
         <v>144</v>
       </c>
       <c r="C25" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D25" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -3001,134 +3238,549 @@
         <v>144</v>
       </c>
       <c r="C26" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D26" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>231</v>
+        <v>144</v>
       </c>
       <c r="C27" t="s">
-        <v>171</v>
+        <v>272</v>
       </c>
       <c r="D27" t="s">
-        <v>222</v>
+        <v>271</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>231</v>
+        <v>144</v>
       </c>
       <c r="C28" t="s">
-        <v>3</v>
+        <v>131</v>
       </c>
       <c r="D28" t="s">
-        <v>223</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>231</v>
+        <v>144</v>
       </c>
       <c r="C29" t="s">
-        <v>153</v>
+        <v>274</v>
       </c>
       <c r="D29" t="s">
-        <v>224</v>
+        <v>273</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>231</v>
+        <v>144</v>
       </c>
       <c r="C30" t="s">
-        <v>5</v>
+        <v>125</v>
       </c>
       <c r="D30" t="s">
-        <v>225</v>
+        <v>124</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>231</v>
+        <v>144</v>
       </c>
       <c r="C31" t="s">
-        <v>159</v>
+        <v>123</v>
       </c>
       <c r="D31" t="s">
-        <v>226</v>
+        <v>122</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>231</v>
+        <v>144</v>
       </c>
       <c r="C32" t="s">
-        <v>7</v>
+        <v>276</v>
       </c>
       <c r="D32" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>231</v>
+        <v>144</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>127</v>
       </c>
       <c r="D33" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>231</v>
+        <v>77</v>
       </c>
       <c r="C34" t="s">
-        <v>221</v>
+        <v>21</v>
       </c>
       <c r="D34" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>231</v>
+        <v>77</v>
       </c>
       <c r="C35" t="s">
-        <v>167</v>
+        <v>218</v>
       </c>
       <c r="D35" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>231</v>
+        <v>77</v>
       </c>
       <c r="C36" t="s">
-        <v>232</v>
+        <v>11</v>
       </c>
       <c r="D36" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>77</v>
+      </c>
+      <c r="C37" t="s">
+        <v>219</v>
+      </c>
+      <c r="D37" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" t="s">
+        <v>257</v>
+      </c>
+      <c r="D38" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>77</v>
+      </c>
+      <c r="C39" t="s">
+        <v>65</v>
+      </c>
+      <c r="D39" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>77</v>
+      </c>
+      <c r="C40" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" t="s">
-        <v>231</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="D40" t="s">
         <v>233</v>
       </c>
-      <c r="D37" t="s">
-        <v>234</v>
-      </c>
-      <c r="E37" t="s">
-        <v>235</v>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>77</v>
+      </c>
+      <c r="C41" t="s">
+        <v>217</v>
+      </c>
+      <c r="D41" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>77</v>
+      </c>
+      <c r="C42" t="s">
+        <v>216</v>
+      </c>
+      <c r="D42" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>77</v>
+      </c>
+      <c r="C43" t="s">
+        <v>220</v>
+      </c>
+      <c r="D43" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>77</v>
+      </c>
+      <c r="C44" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>77</v>
+      </c>
+      <c r="C45" t="s">
+        <v>255</v>
+      </c>
+      <c r="D45" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>77</v>
+      </c>
+      <c r="C46" t="s">
+        <v>4</v>
+      </c>
+      <c r="D46" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>330</v>
+      </c>
+      <c r="C47" t="s">
+        <v>279</v>
+      </c>
+      <c r="D47" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>330</v>
+      </c>
+      <c r="C48" t="s">
+        <v>281</v>
+      </c>
+      <c r="D48" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>330</v>
+      </c>
+      <c r="C49" t="s">
+        <v>283</v>
+      </c>
+      <c r="D49" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>330</v>
+      </c>
+      <c r="C50" t="s">
+        <v>285</v>
+      </c>
+      <c r="D50" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>330</v>
+      </c>
+      <c r="C51" t="s">
+        <v>287</v>
+      </c>
+      <c r="D51" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>330</v>
+      </c>
+      <c r="C52" t="s">
+        <v>289</v>
+      </c>
+      <c r="D52" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>330</v>
+      </c>
+      <c r="C53" t="s">
+        <v>291</v>
+      </c>
+      <c r="D53" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>330</v>
+      </c>
+      <c r="C54" t="s">
+        <v>293</v>
+      </c>
+      <c r="D54" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>330</v>
+      </c>
+      <c r="C55" t="s">
+        <v>295</v>
+      </c>
+      <c r="D55" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>330</v>
+      </c>
+      <c r="C56" t="s">
+        <v>297</v>
+      </c>
+      <c r="D56" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>330</v>
+      </c>
+      <c r="C57" t="s">
+        <v>299</v>
+      </c>
+      <c r="D57" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>330</v>
+      </c>
+      <c r="C58" t="s">
+        <v>301</v>
+      </c>
+      <c r="D58" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>330</v>
+      </c>
+      <c r="C59" t="s">
+        <v>303</v>
+      </c>
+      <c r="D59" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>330</v>
+      </c>
+      <c r="C60" t="s">
+        <v>305</v>
+      </c>
+      <c r="D60" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>330</v>
+      </c>
+      <c r="C61" t="s">
+        <v>307</v>
+      </c>
+      <c r="D61" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>330</v>
+      </c>
+      <c r="C62" t="s">
+        <v>309</v>
+      </c>
+      <c r="D62" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>330</v>
+      </c>
+      <c r="C63" t="s">
+        <v>311</v>
+      </c>
+      <c r="D63" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>330</v>
+      </c>
+      <c r="C64" t="s">
+        <v>313</v>
+      </c>
+      <c r="D64" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>330</v>
+      </c>
+      <c r="C65" t="s">
+        <v>315</v>
+      </c>
+      <c r="D65" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>330</v>
+      </c>
+      <c r="C66" t="s">
+        <v>317</v>
+      </c>
+      <c r="D66" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>330</v>
+      </c>
+      <c r="C67" t="s">
+        <v>332</v>
+      </c>
+      <c r="D67" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>330</v>
+      </c>
+      <c r="C68" t="s">
+        <v>334</v>
+      </c>
+      <c r="D68" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>330</v>
+      </c>
+      <c r="C69" t="s">
+        <v>336</v>
+      </c>
+      <c r="D69" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>330</v>
+      </c>
+      <c r="C70" t="s">
+        <v>319</v>
+      </c>
+      <c r="D70" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
+        <v>330</v>
+      </c>
+      <c r="C71" t="s">
+        <v>321</v>
+      </c>
+      <c r="D71" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
+        <v>330</v>
+      </c>
+      <c r="C72" t="s">
+        <v>323</v>
+      </c>
+      <c r="D72" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
+        <v>330</v>
+      </c>
+      <c r="C73" t="s">
+        <v>325</v>
+      </c>
+      <c r="D73" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>330</v>
+      </c>
+      <c r="C74" t="s">
+        <v>327</v>
+      </c>
+      <c r="D74" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
+        <v>330</v>
+      </c>
+      <c r="C75" t="s">
+        <v>329</v>
+      </c>
+      <c r="D75" t="s">
+        <v>328</v>
       </c>
     </row>
   </sheetData>

--- a/TIMES-NZ/ReportDefs-TIMES-NZ.xlsx
+++ b/TIMES-NZ/ReportDefs-TIMES-NZ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Veda\Veda_models\TIMES-NZ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6248266D-DD6E-415E-AFEC-8BCFCA2F82CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E87A0AC-22E3-4F76-9FC3-08B63A4D4E83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ScenMap" sheetId="56" r:id="rId1"/>
@@ -106,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="339">
   <si>
     <t>Unit</t>
   </si>
@@ -1117,6 +1117,12 @@
   </si>
   <si>
     <t>Other Com</t>
+  </si>
+  <si>
+    <t>Electricity</t>
+  </si>
+  <si>
+    <t>Crude Oil</t>
   </si>
 </sst>
 </file>
@@ -2403,7 +2409,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2528,8 +2534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3E766D8-7F73-4A5A-98A5-9C85D527817F}">
   <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="15"/>
@@ -2704,7 +2710,7 @@
         <v>180</v>
       </c>
       <c r="B21" t="s">
-        <v>181</v>
+        <v>147</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -2712,7 +2718,7 @@
         <v>182</v>
       </c>
       <c r="B22" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -2720,7 +2726,7 @@
         <v>184</v>
       </c>
       <c r="B23" t="s">
-        <v>185</v>
+        <v>337</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -2728,7 +2734,7 @@
         <v>186</v>
       </c>
       <c r="B24" t="s">
-        <v>185</v>
+        <v>337</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -2736,7 +2742,7 @@
         <v>187</v>
       </c>
       <c r="B25" t="s">
-        <v>185</v>
+        <v>337</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -2752,7 +2758,7 @@
         <v>189</v>
       </c>
       <c r="B27" t="s">
-        <v>185</v>
+        <v>337</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -2800,7 +2806,7 @@
         <v>197</v>
       </c>
       <c r="B33" t="s">
-        <v>198</v>
+        <v>155</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -2808,7 +2814,7 @@
         <v>199</v>
       </c>
       <c r="B34" t="s">
-        <v>198</v>
+        <v>155</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -2832,7 +2838,7 @@
         <v>204</v>
       </c>
       <c r="B37" t="s">
-        <v>205</v>
+        <v>338</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -2840,7 +2846,7 @@
         <v>206</v>
       </c>
       <c r="B38" t="s">
-        <v>207</v>
+        <v>338</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -2937,7 +2943,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10ADB714-E6AA-4E3E-B77B-62B65BA0E218}">
   <dimension ref="A1:G75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
